--- a/학습자료/오답노트/오답노트_무한반복_연표_연표_한국사_현대.xlsx
+++ b/학습자료/오답노트/오답노트_무한반복_연표_연표_한국사_현대.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,19 +1230,845 @@
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1948</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>20221201</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>10</t>
+      <c r="C43" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>조선공산당 창당</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E44" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>남조선 과도정부 성립</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E45" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>815 선언</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E46" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>김구 3천만 동포에게 읍고함 발표</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E47" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>민족자주연맹 결성</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E48" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>국가보안법 제정</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E49" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>민주국민당 창당</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E50" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>최규하 제10대 대통령 당선</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1979</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E51" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>소련의 대일 선전포고</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E52" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>5공 청문회</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>87</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D53" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E53" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>자유당 창당</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1951</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E54" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>한일 회담 재개</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>62</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1961</v>
+      </c>
+      <c r="D55" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>이승만 제3대 대통령 당선</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1956</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E56" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>박정희 제7대 대통령 당선</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>72</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1971</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E57" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>포츠담 선언</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D58" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E58" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>반민족 행위 처벌법 제정</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>47</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D59" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E59" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>한민족 공동체 통일 방안</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>84</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D60" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E60" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>31 민주 구국 선언</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>70</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D61" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E61" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>제네바 회담 한국 문제 결렬</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>94</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1954</v>
+      </c>
+      <c r="D62" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E62" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>남북 기본 합의서 채택</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>73</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D63" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E63" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>중국과 수교</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>90</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D64" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E64" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>남북 적십자 회담 개최</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>70</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1971</v>
+      </c>
+      <c r="D65" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E65" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>반공법 제정</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>48</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1962</v>
+      </c>
+      <c r="D66" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E66" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>한국독립당 김구 개인자격 귀국</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>46</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D67" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E67" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>제5차 개헌 실시</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>61</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1962</v>
+      </c>
+      <c r="D68" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>유엔 한국임시위원단 파견</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>46</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D69" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>박정희 제6대 대통령 당선</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>71</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1967</v>
+      </c>
+      <c r="D70" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>대한항공 858편 폭파 사건</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>83</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D71" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>서울의 봄</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>87</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1979</v>
+      </c>
+      <c r="D72" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>제2차 개헌 실시</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>56</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1954</v>
+      </c>
+      <c r="D73" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>518 민주화 운동</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D74" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>제3차 경제 개발 5개년 계획 실행</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>1972</v>
+      </c>
+      <c r="D75" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>트루먼 독트린 발표</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>69</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D76" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>귀속 재산 처리법 제정</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>48</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D77" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>미국의 한반도 문제 국제연합 이관</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>48</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D78" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>애치슨 선언</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>49</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D79" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>제6차 개헌 실시</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>62</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1969</v>
+      </c>
+      <c r="D80" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>신한공사 설립</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>1946</v>
+      </c>
+      <c r="D81" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>여수 순천 1019 사건</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>60</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D82" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>소련의 휴전 제의</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>53</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1951</v>
+      </c>
+      <c r="D83" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>은행법 및 한국은행법 제정</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>48</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D84" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>제2차 연평해전</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>99</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D85" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>104 남북 공동 선언</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D86" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>남조선 과도입법위원 구성</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>20221202</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>00</t>
         </is>
       </c>
     </row>
